--- a/СТ-21-03,04.xlsx
+++ b/СТ-21-03,04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -60,26 +60,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7CFC00"/>
-        <bgColor rgb="FF7CFC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF1E3A"/>
-        <bgColor rgb="FFFF1E3A"/>
+        <fgColor rgb="00FF1E3A"/>
+        <bgColor rgb="00FF1E3A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007CFC00"/>
         <bgColor rgb="007CFC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF1E3A"/>
-        <bgColor rgb="00FF1E3A"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +84,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -110,16 +98,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,15 +467,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E1" sqref="E1:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -502,12 +484,11 @@
     <col width="8.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="35.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="30" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="10"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -536,11 +517,6 @@
           <t>2022-03-30</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>2022-04-06</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
@@ -583,24 +559,29 @@
           <t>azmatovaliana@gmail.com</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H3" s="10" t="inlineStr">
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
         </is>
       </c>
     </row>
@@ -623,19 +604,29 @@
           <t>kemochkachka@gmail.com</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
         </is>
       </c>
     </row>
@@ -658,22 +649,27 @@
           <t>gilmutdinova_2003@internet.ru</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G5" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -698,29 +694,29 @@
           <t>muravka04@gmail.com</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G6" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I6" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -743,27 +739,27 @@
           <t>ekamilana@mail.ru</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H7" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I7" s="9" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -788,24 +784,29 @@
           <t>history-istorya@mail.ru</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="J8" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
         </is>
       </c>
     </row>
@@ -828,27 +829,27 @@
           <t>Bellis.blue@yandex.ru</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I9" s="10" t="inlineStr">
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -873,24 +874,29 @@
           <t>ghjvladislav@gmail.com</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G10" s="10" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
         </is>
       </c>
     </row>
@@ -913,19 +919,29 @@
           <t>Chuk_chuk03@mail.ru</t>
         </is>
       </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
         </is>
       </c>
     </row>
@@ -948,19 +964,29 @@
           <t>Shtezel.liliia@yandex.ru</t>
         </is>
       </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
         </is>
       </c>
     </row>
@@ -984,22 +1010,27 @@
           <t>allagulov03@mail.ru</t>
         </is>
       </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -1024,34 +1055,29 @@
           <t>domra003@gmail.com</t>
         </is>
       </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H15" s="10" t="inlineStr">
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="J15" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1074,19 +1100,29 @@
           <t>zakhar_maltsev@mail.ru</t>
         </is>
       </c>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
         </is>
       </c>
     </row>
@@ -1109,27 +1145,27 @@
           <t>mozsalina@mail.ru</t>
         </is>
       </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G17" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="inlineStr">
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1154,29 +1190,29 @@
           <t>keshalot5@yandex.ru</t>
         </is>
       </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G18" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H18" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="J18" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1199,27 +1235,27 @@
           <t>cristomilova@yandex.ru</t>
         </is>
       </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F19" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G19" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H19" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I19" s="9" t="inlineStr">
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -1244,27 +1280,27 @@
           <t>alinochka.shemelina@mail.ru</t>
         </is>
       </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F20" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G20" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H20" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="I20" s="7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -1289,27 +1325,27 @@
           <t>shulyateva.o@list.ru</t>
         </is>
       </c>
-      <c r="E21" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F21" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I21" s="10" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1334,6 +1370,31 @@
           <t>chrikyan03@gmail.com</t>
         </is>
       </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>н</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="n">
@@ -1354,27 +1415,27 @@
           <t>mari.yarovaya@list.ru</t>
         </is>
       </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F23" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G23" s="9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H23" s="10" t="inlineStr">
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I23" s="10" t="inlineStr">
+      <c r="I23" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1409,26 +1470,26 @@
     <row r="50"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" display="mailto:kemochkachka@gmail.com" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" display="mailto:ekamilana@mail.ru" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" display="mailto:ghjvladislav@gmail.com" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" display="mailto:Chuk_chuk03@mail.ru" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" display="mailto:Shtezel.liliia@yandex.ru" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" display="mailto:domra003@gmail.com" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D17" display="mailto:mozsalina@mail.ru" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" display="mailto:alinochka.shemelina@mail.ru" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D19" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" display="mailto:alinochka.shemelina@mail.ru" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D21" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D23" display="mailto:mari.yarovaya@list.ru" r:id="rId20"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" display="mailto:kemochkachka@gmail.com" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" display="mailto:ekamilana@mail.ru" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" display="mailto:ghjvladislav@gmail.com" r:id="rId8"/>
+    <hyperlink ref="D11" display="mailto:Chuk_chuk03@mail.ru" r:id="rId9"/>
+    <hyperlink ref="D12" display="mailto:Shtezel.liliia@yandex.ru" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" display="mailto:domra003@gmail.com" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" display="mailto:mozsalina@mail.ru" r:id="rId14"/>
+    <hyperlink ref="D18" display="mailto:alinochka.shemelina@mail.ru" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D20" display="mailto:alinochka.shemelina@mail.ru" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId18"/>
+    <hyperlink ref="D22" r:id="rId19"/>
+    <hyperlink ref="D23" display="mailto:mari.yarovaya@list.ru" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
